--- a/Code/Results/Cases/Case_4_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.140934875173571</v>
+        <v>0.4908867651578248</v>
       </c>
       <c r="C2">
-        <v>0.1160728869890022</v>
+        <v>0.1396300584654213</v>
       </c>
       <c r="D2">
-        <v>0.1963395023092573</v>
+        <v>0.07844862448544632</v>
       </c>
       <c r="E2">
-        <v>0.06604799784529547</v>
+        <v>0.1054197549157543</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3807153353386568</v>
+        <v>0.6710566250718131</v>
       </c>
       <c r="H2">
-        <v>0.3285763728022317</v>
+        <v>0.7869608080748733</v>
       </c>
       <c r="I2">
-        <v>0.353201996321463</v>
+        <v>0.7861401061115423</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.007104107884999</v>
+        <v>0.3203634580962103</v>
       </c>
       <c r="L2">
-        <v>0.2604470564736943</v>
+        <v>0.2007034689628284</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.44275212169606</v>
+        <v>2.910641772078421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9920462146794478</v>
+        <v>0.4466075507039022</v>
       </c>
       <c r="C3">
-        <v>0.112858041652423</v>
+        <v>0.1385154780506141</v>
       </c>
       <c r="D3">
-        <v>0.1704515473562367</v>
+        <v>0.07117883871495678</v>
       </c>
       <c r="E3">
-        <v>0.06195283158787035</v>
+        <v>0.1050550005728468</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3722268737726964</v>
+        <v>0.6746020438910563</v>
       </c>
       <c r="H3">
-        <v>0.3308027122646635</v>
+        <v>0.7925544437119001</v>
       </c>
       <c r="I3">
-        <v>0.3580986155239643</v>
+        <v>0.7932138554991539</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8807136466802774</v>
+        <v>0.2807909321530531</v>
       </c>
       <c r="L3">
-        <v>0.2296643901227071</v>
+        <v>0.1931978078458201</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.42903719236746</v>
+        <v>2.929598318545388</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9007372475622333</v>
+        <v>0.4194760943727545</v>
       </c>
       <c r="C4">
-        <v>0.1108983457246779</v>
+        <v>0.137834265489829</v>
       </c>
       <c r="D4">
-        <v>0.1546837912967902</v>
+        <v>0.0667479500045971</v>
       </c>
       <c r="E4">
-        <v>0.05953320708924892</v>
+        <v>0.1048858706590323</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3679275495186047</v>
+        <v>0.6772140653492258</v>
       </c>
       <c r="H4">
-        <v>0.3327343336481619</v>
+        <v>0.7963240930669784</v>
       </c>
       <c r="I4">
-        <v>0.3618592045645528</v>
+        <v>0.7979608947939951</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8030790768044085</v>
+        <v>0.2564374584504208</v>
       </c>
       <c r="L4">
-        <v>0.2109766563330169</v>
+        <v>0.1886928588197918</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.423723235419558</v>
+        <v>2.942852278616201</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8635442604299044</v>
+        <v>0.4084346763355597</v>
       </c>
       <c r="C5">
-        <v>0.1101031312698666</v>
+        <v>0.1375574884884614</v>
       </c>
       <c r="D5">
-        <v>0.1482865958180923</v>
+        <v>0.06495060414337672</v>
       </c>
       <c r="E5">
-        <v>0.05856991396795053</v>
+        <v>0.1048307566080133</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3663944441158975</v>
+        <v>0.6783878453149867</v>
       </c>
       <c r="H5">
-        <v>0.3336588105588802</v>
+        <v>0.7979445879808793</v>
       </c>
       <c r="I5">
-        <v>0.3635745728462574</v>
+        <v>0.7999968774837534</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7714258735537385</v>
+        <v>0.2464997996396647</v>
       </c>
       <c r="L5">
-        <v>0.2034101453223514</v>
+        <v>0.1868831867703022</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.42230684781461</v>
+        <v>2.94865937373541</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8573690507507195</v>
+        <v>0.4066021775166746</v>
       </c>
       <c r="C6">
-        <v>0.109971284947342</v>
+        <v>0.1375115805090203</v>
       </c>
       <c r="D6">
-        <v>0.147225947950929</v>
+        <v>0.06465265710308188</v>
       </c>
       <c r="E6">
-        <v>0.05841130048510834</v>
+        <v>0.1048224395081263</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3661527940121658</v>
+        <v>0.6785893540612236</v>
       </c>
       <c r="H6">
-        <v>0.3338204812141043</v>
+        <v>0.7982187651481212</v>
       </c>
       <c r="I6">
-        <v>0.3638702643354037</v>
+        <v>0.8003410829000934</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7661686386803694</v>
+        <v>0.2448488662914912</v>
       </c>
       <c r="L6">
-        <v>0.2021565530456826</v>
+        <v>0.1865842730471741</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.42211598712818</v>
+        <v>2.949648158898057</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.900235598998961</v>
+        <v>0.419327124742324</v>
       </c>
       <c r="C7">
-        <v>0.1108876077626491</v>
+        <v>0.137830529404539</v>
       </c>
       <c r="D7">
-        <v>0.1545974067963698</v>
+        <v>0.06672367681254343</v>
       </c>
       <c r="E7">
-        <v>0.05952012522011785</v>
+        <v>0.1048850714377068</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3679060008250019</v>
+        <v>0.6772294526346201</v>
       </c>
       <c r="H7">
-        <v>0.3327462514393389</v>
+        <v>0.7963456060912932</v>
       </c>
       <c r="I7">
-        <v>0.3618816067282538</v>
+        <v>0.7979879416891507</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8026522687183331</v>
+        <v>0.2563034892419012</v>
       </c>
       <c r="L7">
-        <v>0.2108744197476824</v>
+        <v>0.1886683470241479</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.423701141960208</v>
+        <v>2.942928951255595</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.089568328462349</v>
+        <v>0.4756080705487591</v>
       </c>
       <c r="C8">
-        <v>0.1149613271495511</v>
+        <v>0.1392451172850357</v>
       </c>
       <c r="D8">
-        <v>0.1873845254332309</v>
+        <v>0.07593521409474135</v>
       </c>
       <c r="E8">
-        <v>0.06461561262536719</v>
+        <v>0.1052826192063705</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3775925761372179</v>
+        <v>0.6721887427029571</v>
       </c>
       <c r="H8">
-        <v>0.329223953021696</v>
+        <v>0.7888199722924085</v>
       </c>
       <c r="I8">
-        <v>0.3547297156441118</v>
+        <v>0.7884953439715972</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9635254341075097</v>
+        <v>0.3067307802190555</v>
       </c>
       <c r="L8">
-        <v>0.2497861157969083</v>
+        <v>0.1980940755418743</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.437358495607072</v>
+        <v>2.916842886342707</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.462276905150588</v>
+        <v>0.586393108576118</v>
       </c>
       <c r="C9">
-        <v>0.1230731595138863</v>
+        <v>0.1420428136741947</v>
       </c>
       <c r="D9">
-        <v>0.2528740265559719</v>
+        <v>0.09425870889555199</v>
       </c>
       <c r="E9">
-        <v>0.0754137610099761</v>
+        <v>0.1064965515868828</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4043319462064829</v>
+        <v>0.6657594119225791</v>
       </c>
       <c r="H9">
-        <v>0.3270180138925411</v>
+        <v>0.7767188578870616</v>
       </c>
       <c r="I9">
-        <v>0.3470055536976844</v>
+        <v>0.7730836907269314</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.279197833705439</v>
+        <v>0.4051540247912158</v>
       </c>
       <c r="L9">
-        <v>0.3280061876498195</v>
+        <v>0.2173967324686714</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.490323226498276</v>
+        <v>2.878500438662797</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.73783097388386</v>
+        <v>0.6680133230510705</v>
       </c>
       <c r="C10">
-        <v>0.1291244065797486</v>
+        <v>0.1441112595400043</v>
       </c>
       <c r="D10">
-        <v>0.3019874759512078</v>
+        <v>0.1078800650700202</v>
       </c>
       <c r="E10">
-        <v>0.08391742417916248</v>
+        <v>0.107652504325717</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4294369982832649</v>
+        <v>0.6631472907219802</v>
       </c>
       <c r="H10">
-        <v>0.3285880437923936</v>
+        <v>0.7694445275403439</v>
       </c>
       <c r="I10">
-        <v>0.3456366337013819</v>
+        <v>0.7637135928303138</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.511920203611879</v>
+        <v>0.4771599310628005</v>
       </c>
       <c r="L10">
-        <v>0.3869763884974731</v>
+        <v>0.2320754425139171</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.547445027841974</v>
+        <v>2.858145149375417</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.863767210023127</v>
+        <v>0.7051881083759213</v>
       </c>
       <c r="C11">
-        <v>0.1319011767266076</v>
+        <v>0.1450547731798579</v>
       </c>
       <c r="D11">
-        <v>0.3246110626531191</v>
+        <v>0.114111552527163</v>
       </c>
       <c r="E11">
-        <v>0.08792837892975314</v>
+        <v>0.1082355832309929</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4422180328063234</v>
+        <v>0.6624185739604229</v>
       </c>
       <c r="H11">
-        <v>0.3300719665426897</v>
+        <v>0.7664855704099836</v>
       </c>
       <c r="I11">
-        <v>0.3460585819423336</v>
+        <v>0.7598749622461476</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.618127412877669</v>
+        <v>0.5098465919952559</v>
       </c>
       <c r="L11">
-        <v>0.4142089581209376</v>
+        <v>0.2388607429261924</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.577916298650791</v>
+        <v>2.850583009593777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.911557953610412</v>
+        <v>0.7192711053929486</v>
       </c>
       <c r="C12">
-        <v>0.1329564783182491</v>
+        <v>0.145412397541925</v>
       </c>
       <c r="D12">
-        <v>0.3332241035753754</v>
+        <v>0.1164762818262801</v>
       </c>
       <c r="E12">
-        <v>0.08946936254270099</v>
+        <v>0.108464593087028</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4472690905275698</v>
+        <v>0.6622087869078541</v>
       </c>
       <c r="H12">
-        <v>0.3307514424217004</v>
+        <v>0.7654153926503682</v>
       </c>
       <c r="I12">
-        <v>0.3463783830156757</v>
+        <v>0.7584823306062134</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.658408419449557</v>
+        <v>0.5222137118100534</v>
       </c>
       <c r="L12">
-        <v>0.4245866724322553</v>
+        <v>0.2414456039127941</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.590147482495155</v>
+        <v>2.847963593781373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.901260562812382</v>
+        <v>0.7162378387702972</v>
       </c>
       <c r="C13">
-        <v>0.1327290254745677</v>
+        <v>0.1453353623049622</v>
       </c>
       <c r="D13">
-        <v>0.3313669950611171</v>
+        <v>0.1159667733517438</v>
       </c>
       <c r="E13">
-        <v>0.08913647341793762</v>
+        <v>0.1084149068571811</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4461716056523102</v>
+        <v>0.6622510244698105</v>
       </c>
       <c r="H13">
-        <v>0.3305997629707775</v>
+        <v>0.7656436374248869</v>
       </c>
       <c r="I13">
-        <v>0.346302228408323</v>
+        <v>0.7587795465459735</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.649730169591521</v>
+        <v>0.5195507136244828</v>
       </c>
       <c r="L13">
-        <v>0.4223486264383496</v>
+        <v>0.2408882238352987</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.58748169828317</v>
+        <v>2.848516869432785</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.867696847258969</v>
+        <v>0.7063466151440423</v>
       </c>
       <c r="C14">
-        <v>0.1319879188076598</v>
+        <v>0.1450841886001228</v>
       </c>
       <c r="D14">
-        <v>0.3253187085509524</v>
+        <v>0.1143060002612089</v>
       </c>
       <c r="E14">
-        <v>0.08805470359210688</v>
+        <v>0.1082542595683087</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4426292619731811</v>
+        <v>0.6623999882138634</v>
       </c>
       <c r="H14">
-        <v>0.3301254706614856</v>
+        <v>0.7663965180766183</v>
       </c>
       <c r="I14">
-        <v>0.3460816267638869</v>
+        <v>0.7597591674595243</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.621440018248308</v>
+        <v>0.5108642587861709</v>
       </c>
       <c r="L14">
-        <v>0.4150613887460821</v>
+        <v>0.2390730926210693</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.578908407333245</v>
+        <v>2.850362613978717</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.847151844260338</v>
+        <v>0.7002886750968571</v>
       </c>
       <c r="C15">
-        <v>0.1315344750420735</v>
+        <v>0.1449303802680575</v>
       </c>
       <c r="D15">
-        <v>0.3216201150520277</v>
+        <v>0.1132893787083731</v>
       </c>
       <c r="E15">
-        <v>0.08739501902276103</v>
+        <v>0.1081569271493663</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4404874508128955</v>
+        <v>0.6624998514144664</v>
       </c>
       <c r="H15">
-        <v>0.3298504725384248</v>
+        <v>0.7668642305625326</v>
       </c>
       <c r="I15">
-        <v>0.3459676426686684</v>
+        <v>0.7603671548745368</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.604120064113857</v>
+        <v>0.5055421531775437</v>
       </c>
       <c r="L15">
-        <v>0.4106064642524103</v>
+        <v>0.2379632769019366</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.573748643070616</v>
+        <v>2.851524990865528</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.729613969657919</v>
+        <v>0.6655847067108311</v>
       </c>
       <c r="C16">
-        <v>0.128943450324833</v>
+        <v>0.1440496475421753</v>
       </c>
       <c r="D16">
-        <v>0.3005150990936158</v>
+        <v>0.1074735247257337</v>
       </c>
       <c r="E16">
-        <v>0.08365830417139009</v>
+        <v>0.1076155487359109</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4286304086955113</v>
+        <v>0.6632041682135963</v>
       </c>
       <c r="H16">
-        <v>0.3285071307775809</v>
+        <v>0.7696449453491283</v>
       </c>
       <c r="I16">
-        <v>0.3456309028650324</v>
+        <v>0.7639729876710994</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.504987311890829</v>
+        <v>0.475022332190207</v>
       </c>
       <c r="L16">
-        <v>0.3852054351810921</v>
+        <v>0.2316341696400883</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.545547902403086</v>
+        <v>2.85867352061959</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.657670094434735</v>
+        <v>0.6443059838626937</v>
       </c>
       <c r="C17">
-        <v>0.1273603298455015</v>
+        <v>0.143509980552416</v>
       </c>
       <c r="D17">
-        <v>0.2876437786643891</v>
+        <v>0.1039146378940359</v>
       </c>
       <c r="E17">
-        <v>0.08140359179145307</v>
+        <v>0.1072980750901102</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4217156961062472</v>
+        <v>0.6637540024365052</v>
       </c>
       <c r="H17">
-        <v>0.3278849159394355</v>
+        <v>0.771440483330494</v>
       </c>
       <c r="I17">
-        <v>0.3456986623387088</v>
+        <v>0.7662936292377296</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.444269228600689</v>
+        <v>0.4562812196479058</v>
       </c>
       <c r="L17">
-        <v>0.3697316275716389</v>
+        <v>0.2277790286446191</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.529429352569764</v>
+        <v>2.86349376997785</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.616343866968947</v>
+        <v>0.6320713410554788</v>
       </c>
       <c r="C18">
-        <v>0.1264520000477418</v>
+        <v>0.1431998219668102</v>
       </c>
       <c r="D18">
-        <v>0.2802666957144737</v>
+        <v>0.101870963291006</v>
       </c>
       <c r="E18">
-        <v>0.08012006000533134</v>
+        <v>0.1071208605747351</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4178656174959769</v>
+        <v>0.6641135029039589</v>
       </c>
       <c r="H18">
-        <v>0.3275990458387383</v>
+        <v>0.7725061914877642</v>
       </c>
       <c r="I18">
-        <v>0.3458353428185958</v>
+        <v>0.7676682966135466</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.409376979033539</v>
+        <v>0.4454953545278215</v>
       </c>
       <c r="L18">
-        <v>0.3608693499960225</v>
+        <v>0.2255718137422633</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.520577649963002</v>
+        <v>2.866426029117179</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.602360282904186</v>
+        <v>0.6279296670911663</v>
       </c>
       <c r="C19">
-        <v>0.1261448297860923</v>
+        <v>0.1430948504445624</v>
       </c>
       <c r="D19">
-        <v>0.2777732738715741</v>
+        <v>0.1011795787377139</v>
       </c>
       <c r="E19">
-        <v>0.07968771813708031</v>
+        <v>0.107061784746648</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4165834175230003</v>
+        <v>0.6642426494418032</v>
       </c>
       <c r="H19">
-        <v>0.3275144214159269</v>
+        <v>0.7728726844488563</v>
       </c>
       <c r="I19">
-        <v>0.3458981135480919</v>
+        <v>0.7681405868267248</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.397568019184916</v>
+        <v>0.4418423543562255</v>
       </c>
       <c r="L19">
-        <v>0.3578750342060886</v>
+        <v>0.2248262367167655</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.517651234678141</v>
+        <v>2.867446281081698</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.665322934270591</v>
+        <v>0.6465706994241884</v>
       </c>
       <c r="C20">
-        <v>0.1275286215768361</v>
+        <v>0.1435674040523338</v>
       </c>
       <c r="D20">
-        <v>0.289011206633262</v>
+        <v>0.1042931459290628</v>
       </c>
       <c r="E20">
-        <v>0.08164221990131182</v>
+        <v>0.107331313209464</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4224385176032683</v>
+        <v>0.6636909948152692</v>
       </c>
       <c r="H20">
-        <v>0.3279436505981153</v>
+        <v>0.7712459340669682</v>
       </c>
       <c r="I20">
-        <v>0.3456812679845562</v>
+        <v>0.7660424637635153</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.450729448839326</v>
+        <v>0.4582769177787895</v>
       </c>
       <c r="L20">
-        <v>0.3713748756237862</v>
+        <v>0.2281883641491476</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.531101475436884</v>
+        <v>2.86296410898214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.877552427734315</v>
+        <v>0.7092517586744123</v>
       </c>
       <c r="C21">
-        <v>0.1322054938043138</v>
+        <v>0.1451579555419045</v>
       </c>
       <c r="D21">
-        <v>0.3270939435885367</v>
+        <v>0.1147936742091673</v>
       </c>
       <c r="E21">
-        <v>0.08837183182923525</v>
+        <v>0.1083012228926918</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4436638747406079</v>
+        <v>0.6623544377017652</v>
       </c>
       <c r="H21">
-        <v>0.3302615346316173</v>
+        <v>0.7661740135540072</v>
       </c>
       <c r="I21">
-        <v>0.3461419987019134</v>
+        <v>0.7594697740483767</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.629747707488661</v>
+        <v>0.5134159743197984</v>
       </c>
       <c r="L21">
-        <v>0.4171999972000719</v>
+        <v>0.2396058230854692</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.581407407524466</v>
+        <v>2.849813845757495</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.016856770471122</v>
+        <v>0.7502503786686816</v>
       </c>
       <c r="C22">
-        <v>0.1352844255112728</v>
+        <v>0.1461994175511165</v>
       </c>
       <c r="D22">
-        <v>0.3522540217747832</v>
+        <v>0.121685501592907</v>
       </c>
       <c r="E22">
-        <v>0.09289979211154176</v>
+        <v>0.108982963228847</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4587746124466179</v>
+        <v>0.6618666002180191</v>
       </c>
       <c r="H22">
-        <v>0.3324650815358297</v>
+        <v>0.7631524770363427</v>
       </c>
       <c r="I22">
-        <v>0.3473808396760845</v>
+        <v>0.7555295571380185</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.747118690724932</v>
+        <v>0.549390391223568</v>
       </c>
       <c r="L22">
-        <v>0.447533676426616</v>
+        <v>0.2471575968568231</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.618345183285072</v>
+        <v>2.842642828345475</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.942446479191602</v>
+        <v>0.7283658972040712</v>
       </c>
       <c r="C23">
-        <v>0.1336389772650719</v>
+        <v>0.1456434025570559</v>
       </c>
       <c r="D23">
-        <v>0.3387989305762744</v>
+        <v>0.1180045527475357</v>
       </c>
       <c r="E23">
-        <v>0.09047069918351269</v>
+        <v>0.1086147338049024</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4505909863991775</v>
+        <v>0.662091652572073</v>
       </c>
       <c r="H23">
-        <v>0.3312236029012183</v>
+        <v>0.7647383078582948</v>
       </c>
       <c r="I23">
-        <v>0.3466304382360832</v>
+        <v>0.7575999973172358</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.68443675027882</v>
+        <v>0.5301960717050633</v>
       </c>
       <c r="L23">
-        <v>0.4313064732269822</v>
+        <v>0.2431188885671389</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.598242860961051</v>
+        <v>2.846339860577473</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.661862976828786</v>
+        <v>0.6455468252639491</v>
       </c>
       <c r="C24">
-        <v>0.1274525312193688</v>
+        <v>0.1435414425646186</v>
       </c>
       <c r="D24">
-        <v>0.288392921808807</v>
+        <v>0.1041220150401756</v>
       </c>
       <c r="E24">
-        <v>0.08153429659534694</v>
+        <v>0.1073162697291039</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4221113409398498</v>
+        <v>0.6637193453991301</v>
       </c>
       <c r="H24">
-        <v>0.3279168733775037</v>
+        <v>0.7713337856542921</v>
       </c>
       <c r="I24">
-        <v>0.3456888283148167</v>
+        <v>0.7661558895219507</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.447808736367989</v>
+        <v>0.457374697958528</v>
       </c>
       <c r="L24">
-        <v>0.3706318583480765</v>
+        <v>0.2280032750380485</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.530344219385796</v>
+        <v>2.863203067114682</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.361211688447014</v>
+        <v>0.5563810009588792</v>
       </c>
       <c r="C25">
-        <v>0.1208638947049678</v>
+        <v>0.1412835786426641</v>
       </c>
       <c r="D25">
-        <v>0.2350025741045982</v>
+        <v>0.08927383346765794</v>
       </c>
       <c r="E25">
-        <v>0.07239841539339054</v>
+        <v>0.106121724377001</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3961956033213596</v>
+        <v>0.6671282676534389</v>
       </c>
       <c r="H25">
-        <v>0.3270791476574004</v>
+        <v>0.779708450567739</v>
       </c>
       <c r="I25">
-        <v>0.3483742739278561</v>
+        <v>0.7769100127913724</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.193711639867956</v>
+        <v>0.3785799905148792</v>
       </c>
       <c r="L25">
-        <v>0.3066072842379839</v>
+        <v>0.2120874097296905</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.472968032344227</v>
+        <v>2.887501006452396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4908867651578248</v>
+        <v>1.140934875173713</v>
       </c>
       <c r="C2">
-        <v>0.1396300584654213</v>
+        <v>0.1160728869891585</v>
       </c>
       <c r="D2">
-        <v>0.07844862448544632</v>
+        <v>0.1963395023090584</v>
       </c>
       <c r="E2">
-        <v>0.1054197549157543</v>
+        <v>0.06604799784529547</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6710566250718131</v>
+        <v>0.3807153353387136</v>
       </c>
       <c r="H2">
-        <v>0.7869608080748733</v>
+        <v>0.3285763728022246</v>
       </c>
       <c r="I2">
-        <v>0.7861401061115423</v>
+        <v>0.3532019963214701</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3203634580962103</v>
+        <v>1.007104107885056</v>
       </c>
       <c r="L2">
-        <v>0.2007034689628284</v>
+        <v>0.2604470564736374</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.910641772078421</v>
+        <v>1.442752121696103</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4466075507039022</v>
+        <v>0.9920462146793056</v>
       </c>
       <c r="C3">
-        <v>0.1385154780506141</v>
+        <v>0.1128580416524088</v>
       </c>
       <c r="D3">
-        <v>0.07117883871495678</v>
+        <v>0.1704515473562793</v>
       </c>
       <c r="E3">
-        <v>0.1050550005728468</v>
+        <v>0.0619528315878739</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6746020438910563</v>
+        <v>0.3722268737726893</v>
       </c>
       <c r="H3">
-        <v>0.7925544437119001</v>
+        <v>0.3308027122646564</v>
       </c>
       <c r="I3">
-        <v>0.7932138554991539</v>
+        <v>0.3580986155239536</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2807909321530531</v>
+        <v>0.8807136466803627</v>
       </c>
       <c r="L3">
-        <v>0.1931978078458201</v>
+        <v>0.2296643901227213</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.929598318545388</v>
+        <v>1.429037192367431</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4194760943727545</v>
+        <v>0.900737247562347</v>
       </c>
       <c r="C4">
-        <v>0.137834265489829</v>
+        <v>0.1108983457247419</v>
       </c>
       <c r="D4">
-        <v>0.0667479500045971</v>
+        <v>0.1546837912966055</v>
       </c>
       <c r="E4">
-        <v>0.1048858706590323</v>
+        <v>0.05953320708924181</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6772140653492258</v>
+        <v>0.3679275495186616</v>
       </c>
       <c r="H4">
-        <v>0.7963240930669784</v>
+        <v>0.3327343336481619</v>
       </c>
       <c r="I4">
-        <v>0.7979608947939951</v>
+        <v>0.3618592045645386</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2564374584504208</v>
+        <v>0.8030790768043516</v>
       </c>
       <c r="L4">
-        <v>0.1886928588197918</v>
+        <v>0.2109766563329885</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.942852278616201</v>
+        <v>1.423723235419487</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4084346763355597</v>
+        <v>0.8635442604299328</v>
       </c>
       <c r="C5">
-        <v>0.1375574884884614</v>
+        <v>0.1101031312696819</v>
       </c>
       <c r="D5">
-        <v>0.06495060414337672</v>
+        <v>0.1482865958178792</v>
       </c>
       <c r="E5">
-        <v>0.1048307566080133</v>
+        <v>0.0585699139679221</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6783878453149867</v>
+        <v>0.3663944441159686</v>
       </c>
       <c r="H5">
-        <v>0.7979445879808793</v>
+        <v>0.3336588105589016</v>
       </c>
       <c r="I5">
-        <v>0.7999968774837534</v>
+        <v>0.3635745728462787</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2464997996396647</v>
+        <v>0.7714258735537101</v>
       </c>
       <c r="L5">
-        <v>0.1868831867703022</v>
+        <v>0.2034101453224366</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.94865937373541</v>
+        <v>1.422306847814639</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4066021775166746</v>
+        <v>0.8573690507505489</v>
       </c>
       <c r="C6">
-        <v>0.1375115805090203</v>
+        <v>0.109971284947477</v>
       </c>
       <c r="D6">
-        <v>0.06465265710308188</v>
+        <v>0.147225947950929</v>
       </c>
       <c r="E6">
-        <v>0.1048224395081263</v>
+        <v>0.05841130048514387</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6785893540612236</v>
+        <v>0.3661527940120664</v>
       </c>
       <c r="H6">
-        <v>0.7982187651481212</v>
+        <v>0.3338204812141043</v>
       </c>
       <c r="I6">
-        <v>0.8003410829000934</v>
+        <v>0.3638702643354108</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2448488662914912</v>
+        <v>0.7661686386803126</v>
       </c>
       <c r="L6">
-        <v>0.1865842730471741</v>
+        <v>0.2021565530456542</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.949648158898057</v>
+        <v>1.422115987128194</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.419327124742324</v>
+        <v>0.9002355989990747</v>
       </c>
       <c r="C7">
-        <v>0.137830529404539</v>
+        <v>0.1108876077631251</v>
       </c>
       <c r="D7">
-        <v>0.06672367681254343</v>
+        <v>0.1545974067963556</v>
       </c>
       <c r="E7">
-        <v>0.1048850714377068</v>
+        <v>0.05952012522007166</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6772294526346201</v>
+        <v>0.3679060008250019</v>
       </c>
       <c r="H7">
-        <v>0.7963456060912932</v>
+        <v>0.3327462514393318</v>
       </c>
       <c r="I7">
-        <v>0.7979879416891507</v>
+        <v>0.3618816067282644</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2563034892419012</v>
+        <v>0.8026522687184752</v>
       </c>
       <c r="L7">
-        <v>0.1886683470241479</v>
+        <v>0.2108744197477392</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.942928951255595</v>
+        <v>1.423701141960251</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4756080705487591</v>
+        <v>1.089568328462349</v>
       </c>
       <c r="C8">
-        <v>0.1392451172850357</v>
+        <v>0.1149613271492171</v>
       </c>
       <c r="D8">
-        <v>0.07593521409474135</v>
+        <v>0.1873845254333588</v>
       </c>
       <c r="E8">
-        <v>0.1052826192063705</v>
+        <v>0.06461561262537074</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6721887427029571</v>
+        <v>0.3775925761372108</v>
       </c>
       <c r="H8">
-        <v>0.7888199722924085</v>
+        <v>0.329223953021696</v>
       </c>
       <c r="I8">
-        <v>0.7884953439715972</v>
+        <v>0.3547297156440905</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3067307802190555</v>
+        <v>0.9635254341074528</v>
       </c>
       <c r="L8">
-        <v>0.1980940755418743</v>
+        <v>0.2497861157969226</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.916842886342707</v>
+        <v>1.437358495607057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.586393108576118</v>
+        <v>1.46227690515073</v>
       </c>
       <c r="C9">
-        <v>0.1420428136741947</v>
+        <v>0.123073159513865</v>
       </c>
       <c r="D9">
-        <v>0.09425870889555199</v>
+        <v>0.2528740265556451</v>
       </c>
       <c r="E9">
-        <v>0.1064965515868828</v>
+        <v>0.07541376100998676</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6657594119225791</v>
+        <v>0.4043319462065682</v>
       </c>
       <c r="H9">
-        <v>0.7767188578870616</v>
+        <v>0.3270180138925269</v>
       </c>
       <c r="I9">
-        <v>0.7730836907269314</v>
+        <v>0.3470055536976879</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4051540247912158</v>
+        <v>1.27919783370541</v>
       </c>
       <c r="L9">
-        <v>0.2173967324686714</v>
+        <v>0.3280061876497484</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.878500438662797</v>
+        <v>1.490323226498276</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6680133230510705</v>
+        <v>1.737830973883916</v>
       </c>
       <c r="C10">
-        <v>0.1441112595400043</v>
+        <v>0.1291244065801465</v>
       </c>
       <c r="D10">
-        <v>0.1078800650700202</v>
+        <v>0.3019874759513925</v>
       </c>
       <c r="E10">
-        <v>0.107652504325717</v>
+        <v>0.08391742417915893</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6631472907219802</v>
+        <v>0.4294369982832507</v>
       </c>
       <c r="H10">
-        <v>0.7694445275403439</v>
+        <v>0.3285880437925073</v>
       </c>
       <c r="I10">
-        <v>0.7637135928303138</v>
+        <v>0.3456366337013677</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4771599310628005</v>
+        <v>1.511920203611936</v>
       </c>
       <c r="L10">
-        <v>0.2320754425139171</v>
+        <v>0.3869763884975441</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.858145149375417</v>
+        <v>1.547445027841945</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7051881083759213</v>
+        <v>1.863767210023269</v>
       </c>
       <c r="C11">
-        <v>0.1450547731798579</v>
+        <v>0.1319011767261458</v>
       </c>
       <c r="D11">
-        <v>0.114111552527163</v>
+        <v>0.3246110626531902</v>
       </c>
       <c r="E11">
-        <v>0.1082355832309929</v>
+        <v>0.08792837892973182</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6624185739604229</v>
+        <v>0.4422180328063092</v>
       </c>
       <c r="H11">
-        <v>0.7664855704099836</v>
+        <v>0.3300719665426897</v>
       </c>
       <c r="I11">
-        <v>0.7598749622461476</v>
+        <v>0.3460585819423407</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5098465919952559</v>
+        <v>1.618127412877755</v>
       </c>
       <c r="L11">
-        <v>0.2388607429261924</v>
+        <v>0.4142089581209376</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.850583009593777</v>
+        <v>1.577916298650848</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7192711053929486</v>
+        <v>1.911557953610412</v>
       </c>
       <c r="C12">
-        <v>0.145412397541925</v>
+        <v>0.1329564783185688</v>
       </c>
       <c r="D12">
-        <v>0.1164762818262801</v>
+        <v>0.3332241035752617</v>
       </c>
       <c r="E12">
-        <v>0.108464593087028</v>
+        <v>0.08946936254270099</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6622087869078541</v>
+        <v>0.4472690905275982</v>
       </c>
       <c r="H12">
-        <v>0.7654153926503682</v>
+        <v>0.3307514424215867</v>
       </c>
       <c r="I12">
-        <v>0.7584823306062134</v>
+        <v>0.3463783830156757</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5222137118100534</v>
+        <v>1.658408419449557</v>
       </c>
       <c r="L12">
-        <v>0.2414456039127941</v>
+        <v>0.4245866724322696</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.847963593781373</v>
+        <v>1.590147482495183</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7162378387702972</v>
+        <v>1.901260562812325</v>
       </c>
       <c r="C13">
-        <v>0.1453353623049622</v>
+        <v>0.1327290254745606</v>
       </c>
       <c r="D13">
-        <v>0.1159667733517438</v>
+        <v>0.3313669950609608</v>
       </c>
       <c r="E13">
-        <v>0.1084149068571811</v>
+        <v>0.08913647341794828</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6622510244698105</v>
+        <v>0.446171605652367</v>
       </c>
       <c r="H13">
-        <v>0.7656436374248869</v>
+        <v>0.3305997629707633</v>
       </c>
       <c r="I13">
-        <v>0.7587795465459735</v>
+        <v>0.3463022284083337</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5195507136244828</v>
+        <v>1.649730169591521</v>
       </c>
       <c r="L13">
-        <v>0.2408882238352987</v>
+        <v>0.4223486264384206</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.848516869432785</v>
+        <v>1.587481698283142</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7063466151440423</v>
+        <v>1.867696847258912</v>
       </c>
       <c r="C14">
-        <v>0.1450841886001228</v>
+        <v>0.1319879188076598</v>
       </c>
       <c r="D14">
-        <v>0.1143060002612089</v>
+        <v>0.3253187085509381</v>
       </c>
       <c r="E14">
-        <v>0.1082542595683087</v>
+        <v>0.08805470359211043</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6623999882138634</v>
+        <v>0.4426292619732095</v>
       </c>
       <c r="H14">
-        <v>0.7663965180766183</v>
+        <v>0.3301254706614856</v>
       </c>
       <c r="I14">
-        <v>0.7597591674595243</v>
+        <v>0.3460816267638975</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5108642587861709</v>
+        <v>1.621440018248194</v>
       </c>
       <c r="L14">
-        <v>0.2390730926210693</v>
+        <v>0.415061388746139</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.850362613978717</v>
+        <v>1.578908407333188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7002886750968571</v>
+        <v>1.84715184426048</v>
       </c>
       <c r="C15">
-        <v>0.1449303802680575</v>
+        <v>0.1315344750418461</v>
       </c>
       <c r="D15">
-        <v>0.1132893787083731</v>
+        <v>0.3216201150518572</v>
       </c>
       <c r="E15">
-        <v>0.1081569271493663</v>
+        <v>0.08739501902277524</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6624998514144664</v>
+        <v>0.4404874508129524</v>
       </c>
       <c r="H15">
-        <v>0.7668642305625326</v>
+        <v>0.3298504725384248</v>
       </c>
       <c r="I15">
-        <v>0.7603671548745368</v>
+        <v>0.3459676426686684</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5055421531775437</v>
+        <v>1.604120064113857</v>
       </c>
       <c r="L15">
-        <v>0.2379632769019366</v>
+        <v>0.4106064642523393</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.851524990865528</v>
+        <v>1.573748643070644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6655847067108311</v>
+        <v>1.729613969658004</v>
       </c>
       <c r="C16">
-        <v>0.1440496475421753</v>
+        <v>0.1289434503245914</v>
       </c>
       <c r="D16">
-        <v>0.1074735247257337</v>
+        <v>0.3005150990936016</v>
       </c>
       <c r="E16">
-        <v>0.1076155487359109</v>
+        <v>0.08365830417137943</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6632041682135963</v>
+        <v>0.4286304086956108</v>
       </c>
       <c r="H16">
-        <v>0.7696449453491283</v>
+        <v>0.3285071307774672</v>
       </c>
       <c r="I16">
-        <v>0.7639729876710994</v>
+        <v>0.3456309028650431</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.475022332190207</v>
+        <v>1.504987311890829</v>
       </c>
       <c r="L16">
-        <v>0.2316341696400883</v>
+        <v>0.3852054351811915</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.85867352061959</v>
+        <v>1.545547902403143</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6443059838626937</v>
+        <v>1.657670094434906</v>
       </c>
       <c r="C17">
-        <v>0.143509980552416</v>
+        <v>0.1273603298459562</v>
       </c>
       <c r="D17">
-        <v>0.1039146378940359</v>
+        <v>0.2876437786642754</v>
       </c>
       <c r="E17">
-        <v>0.1072980750901102</v>
+        <v>0.08140359179147083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6637540024365052</v>
+        <v>0.4217156961062045</v>
       </c>
       <c r="H17">
-        <v>0.771440483330494</v>
+        <v>0.3278849159395492</v>
       </c>
       <c r="I17">
-        <v>0.7662936292377296</v>
+        <v>0.3456986623387017</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4562812196479058</v>
+        <v>1.444269228600689</v>
       </c>
       <c r="L17">
-        <v>0.2277790286446191</v>
+        <v>0.3697316275716958</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.86349376997785</v>
+        <v>1.529429352569736</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6320713410554788</v>
+        <v>1.616343866969032</v>
       </c>
       <c r="C18">
-        <v>0.1431998219668102</v>
+        <v>0.1264520000479763</v>
       </c>
       <c r="D18">
-        <v>0.101870963291006</v>
+        <v>0.2802666957142179</v>
       </c>
       <c r="E18">
-        <v>0.1071208605747351</v>
+        <v>0.08012006000530292</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6641135029039589</v>
+        <v>0.4178656174959343</v>
       </c>
       <c r="H18">
-        <v>0.7725061914877642</v>
+        <v>0.3275990458387525</v>
       </c>
       <c r="I18">
-        <v>0.7676682966135466</v>
+        <v>0.3458353428185781</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4454953545278215</v>
+        <v>1.40937697903351</v>
       </c>
       <c r="L18">
-        <v>0.2255718137422633</v>
+        <v>0.3608693499960509</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.866426029117179</v>
+        <v>1.52057764996303</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6279296670911663</v>
+        <v>1.602360282904158</v>
       </c>
       <c r="C19">
-        <v>0.1430948504445624</v>
+        <v>0.1261448297860852</v>
       </c>
       <c r="D19">
-        <v>0.1011795787377139</v>
+        <v>0.2777732738716878</v>
       </c>
       <c r="E19">
-        <v>0.107061784746648</v>
+        <v>0.07968771813707676</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6642426494418032</v>
+        <v>0.4165834175230287</v>
       </c>
       <c r="H19">
-        <v>0.7728726844488563</v>
+        <v>0.3275144214159269</v>
       </c>
       <c r="I19">
-        <v>0.7681405868267248</v>
+        <v>0.3458981135481061</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4418423543562255</v>
+        <v>1.39756801918503</v>
       </c>
       <c r="L19">
-        <v>0.2248262367167655</v>
+        <v>0.3578750342062023</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.867446281081698</v>
+        <v>1.517651234678226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6465706994241884</v>
+        <v>1.665322934270705</v>
       </c>
       <c r="C20">
-        <v>0.1435674040523338</v>
+        <v>0.1275286215763742</v>
       </c>
       <c r="D20">
-        <v>0.1042931459290628</v>
+        <v>0.289011206633262</v>
       </c>
       <c r="E20">
-        <v>0.107331313209464</v>
+        <v>0.08164221990130471</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6636909948152692</v>
+        <v>0.4224385176031973</v>
       </c>
       <c r="H20">
-        <v>0.7712459340669682</v>
+        <v>0.3279436505982432</v>
       </c>
       <c r="I20">
-        <v>0.7660424637635153</v>
+        <v>0.3456812679845385</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4582769177787895</v>
+        <v>1.450729448839411</v>
       </c>
       <c r="L20">
-        <v>0.2281883641491476</v>
+        <v>0.3713748756237862</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.86296410898214</v>
+        <v>1.531101475436884</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7092517586744123</v>
+        <v>1.877552427734202</v>
       </c>
       <c r="C21">
-        <v>0.1451579555419045</v>
+        <v>0.1322054938041859</v>
       </c>
       <c r="D21">
-        <v>0.1147936742091673</v>
+        <v>0.327093943588423</v>
       </c>
       <c r="E21">
-        <v>0.1083012228926918</v>
+        <v>0.08837183182923525</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6623544377017652</v>
+        <v>0.4436638747406079</v>
       </c>
       <c r="H21">
-        <v>0.7661740135540072</v>
+        <v>0.330261534631731</v>
       </c>
       <c r="I21">
-        <v>0.7594697740483767</v>
+        <v>0.346141998701917</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5134159743197984</v>
+        <v>1.629747707488576</v>
       </c>
       <c r="L21">
-        <v>0.2396058230854692</v>
+        <v>0.4171999972001146</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.849813845757495</v>
+        <v>1.581407407524495</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7502503786686816</v>
+        <v>2.016856770471236</v>
       </c>
       <c r="C22">
-        <v>0.1461994175511165</v>
+        <v>0.1352844255113581</v>
       </c>
       <c r="D22">
-        <v>0.121685501592907</v>
+        <v>0.3522540217745416</v>
       </c>
       <c r="E22">
-        <v>0.108982963228847</v>
+        <v>0.0928997921115382</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6618666002180191</v>
+        <v>0.4587746124465895</v>
       </c>
       <c r="H22">
-        <v>0.7631524770363427</v>
+        <v>0.3324650815358439</v>
       </c>
       <c r="I22">
-        <v>0.7555295571380185</v>
+        <v>0.3473808396760987</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.549390391223568</v>
+        <v>1.747118690724903</v>
       </c>
       <c r="L22">
-        <v>0.2471575968568231</v>
+        <v>0.4475336764266729</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.842642828345475</v>
+        <v>1.618345183285072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7283658972040712</v>
+        <v>1.942446479191631</v>
       </c>
       <c r="C23">
-        <v>0.1456434025570559</v>
+        <v>0.1336389772652495</v>
       </c>
       <c r="D23">
-        <v>0.1180045527475357</v>
+        <v>0.3387989305764165</v>
       </c>
       <c r="E23">
-        <v>0.1086147338049024</v>
+        <v>0.09047069918350203</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.662091652572073</v>
+        <v>0.4505909863991633</v>
       </c>
       <c r="H23">
-        <v>0.7647383078582948</v>
+        <v>0.3312236029011046</v>
       </c>
       <c r="I23">
-        <v>0.7575999973172358</v>
+        <v>0.3466304382360974</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5301960717050633</v>
+        <v>1.684436750278849</v>
       </c>
       <c r="L23">
-        <v>0.2431188885671389</v>
+        <v>0.4313064732270675</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.846339860577473</v>
+        <v>1.598242860961079</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6455468252639491</v>
+        <v>1.661862976828758</v>
       </c>
       <c r="C24">
-        <v>0.1435414425646186</v>
+        <v>0.1274525312193759</v>
       </c>
       <c r="D24">
-        <v>0.1041220150401756</v>
+        <v>0.288392921808807</v>
       </c>
       <c r="E24">
-        <v>0.1073162697291039</v>
+        <v>0.08153429659536116</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6637193453991301</v>
+        <v>0.4221113409398356</v>
       </c>
       <c r="H24">
-        <v>0.7713337856542921</v>
+        <v>0.3279168733775037</v>
       </c>
       <c r="I24">
-        <v>0.7661558895219507</v>
+        <v>0.3456888283148345</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.457374697958528</v>
+        <v>1.447808736367961</v>
       </c>
       <c r="L24">
-        <v>0.2280032750380485</v>
+        <v>0.3706318583479771</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.863203067114682</v>
+        <v>1.530344219385768</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5563810009588792</v>
+        <v>1.361211688447156</v>
       </c>
       <c r="C25">
-        <v>0.1412835786426641</v>
+        <v>0.1208638947048115</v>
       </c>
       <c r="D25">
-        <v>0.08927383346765794</v>
+        <v>0.2350025741044846</v>
       </c>
       <c r="E25">
-        <v>0.106121724377001</v>
+        <v>0.07239841539339054</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6671282676534389</v>
+        <v>0.3961956033213312</v>
       </c>
       <c r="H25">
-        <v>0.779708450567739</v>
+        <v>0.3270791476575141</v>
       </c>
       <c r="I25">
-        <v>0.7769100127913724</v>
+        <v>0.3483742739278561</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3785799905148792</v>
+        <v>1.193711639868042</v>
       </c>
       <c r="L25">
-        <v>0.2120874097296905</v>
+        <v>0.3066072842380407</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.887501006452396</v>
+        <v>1.472968032344198</v>
       </c>
     </row>
   </sheetData>
